--- a/Fundamentals.xlsx
+++ b/Fundamentals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Darshan\Darshan\CPR\Final Project V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a2f83e5829ab758/Desktop/Seneca-CPR-Final-Project-Team-7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACEBDD19-8618-4FDC-BD90-ED6942BD72E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{ACEBDD19-8618-4FDC-BD90-ED6942BD72E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7522960D-BB30-47F9-A24B-1BCDBC0402E6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{CA98D086-815D-4412-A696-A65E9F99DEE0}"/>
+    <workbookView xWindow="2500" yWindow="1720" windowWidth="16920" windowHeight="10450" xr2:uid="{CA98D086-815D-4412-A696-A65E9F99DEE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -283,12 +283,55 @@
         </r>
       </text>
     </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{962B1BB7-CA99-4F6D-B609-A2ACA26C715D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message or explore unexpected, undefined behaviours.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>Version 1</t>
   </si>
@@ -419,12 +462,104 @@
     <t xml:space="preserve">Run by:
 </t>
   </si>
+  <si>
+    <t>Version 2</t>
+  </si>
+  <si>
+    <t>Run by:</t>
+  </si>
+  <si>
+    <t>Darshan Kalpeshbhai Prajapati</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Description </t>
+    </r>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Expected results</t>
+  </si>
+  <si>
+    <t>+ Returns the size of string properly if it is a space</t>
+  </si>
+  <si>
+    <t>"  "(2 spaces)</t>
+  </si>
+  <si>
+    <t>The function should successfully return the length of string. It returns the number of spaces entered</t>
+  </si>
+  <si>
+    <t>This is the way it should have worked and it's correct</t>
+  </si>
+  <si>
+    <t>+ Returns the size of string even if a newline character is entered</t>
+  </si>
+  <si>
+    <t>\n(enter)</t>
+  </si>
+  <si>
+    <t>The function should successfully return the size of string as 0</t>
+  </si>
+  <si>
+    <t>+ Returns the size of string with combination of letters, symbols, digits and spaces</t>
+  </si>
+  <si>
+    <t>Hello 123</t>
+  </si>
+  <si>
+    <t>The function should return the size of string as 9</t>
+  </si>
+  <si>
+    <t>+ Exiting the application</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>The function should exit the application by printing the ending statement</t>
+  </si>
+  <si>
+    <t>- Accepts input as a string even when larger than 79</t>
+  </si>
+  <si>
+    <t>Open the application and input any string with characters exceeding 79 size.</t>
+  </si>
+  <si>
+    <t>The function should not accept the input larger than the holding capacity of the array buffer2</t>
+  </si>
+  <si>
+    <t>It accepts the string, no matter the size. Thus, it results in overflow of buffer2 and cause a runtime error everytime we run the program.</t>
+  </si>
+  <si>
+    <t>Recommended fix: There must be a conditional statement included in the code which should not allow the input to exceed 79 characters. Which will prevent the overflow of the array.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,8 +635,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,8 +674,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -633,56 +787,191 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1010,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263E1B69-138B-4257-B5AF-406804B503D2}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1025,149 +1314,293 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="100" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="212.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:7" ht="100" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:7" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="100" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="50" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="200" x14ac:dyDescent="0.35">
+      <c r="A14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F7">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -1183,6 +1616,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010091DA70FED0CF0C47ABEB2750A1D92CC4" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6979442916101ba318def1708def148">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31d5eec3c12ee2e8127422d567928fa7">
     <xsd:element name="properties">
@@ -1296,15 +1738,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1312,13 +1745,34 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7425D6E-5F80-47FA-A2B5-4B34439DB9EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{745881C1-A4C9-4793-A12E-A4B37B76A22F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{745881C1-A4C9-4793-A12E-A4B37B76A22F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7425D6E-5F80-47FA-A2B5-4B34439DB9EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9D0DD8A-4645-45E1-B84F-0A5658F87696}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9D0DD8A-4645-45E1-B84F-0A5658F87696}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Fundamentals.xlsx
+++ b/Fundamentals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a2f83e5829ab758/Desktop/Seneca-CPR-Final-Project-Team-7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{ACEBDD19-8618-4FDC-BD90-ED6942BD72E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7522960D-BB30-47F9-A24B-1BCDBC0402E6}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{ACEBDD19-8618-4FDC-BD90-ED6942BD72E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB518588-E8F2-4168-9949-19EA84E62BAB}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="1720" windowWidth="16920" windowHeight="10450" xr2:uid="{CA98D086-815D-4412-A696-A65E9F99DEE0}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{CA98D086-815D-4412-A696-A65E9F99DEE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -326,12 +326,55 @@
         </r>
       </text>
     </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{C6B57704-B107-47E2-81D8-8F9A963BE890}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message or explore unexpected, undefined behaviours.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t>Version 1</t>
   </si>
@@ -553,6 +596,60 @@
   </si>
   <si>
     <t>Recommended fix: There must be a conditional statement included in the code which should not allow the input to exceed 79 characters. Which will prevent the overflow of the array.</t>
+  </si>
+  <si>
+    <t>Version 3</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>+ Copies the string input in destination if it there is a newline</t>
+  </si>
+  <si>
+    <t>Open the application and enter a newline character in the input of source string Input:\n</t>
+  </si>
+  <si>
+    <t>It should not give an error and should copy "nothing" in the destination file.</t>
+  </si>
+  <si>
+    <t>+ Copies the source string's input in the destination for spaces</t>
+  </si>
+  <si>
+    <t>Open the application and enter as many spaces as you like. Input: "   "</t>
+  </si>
+  <si>
+    <t>It should copy the spaces from the source input to the destination file</t>
+  </si>
+  <si>
+    <t>+ Copies a variety of input successfully</t>
+  </si>
+  <si>
+    <t>Open the application and enter an input which is combination of lowercase, Uppercase, digits, specia symbols and spaces</t>
+  </si>
+  <si>
+    <t>It should copy all the input from the source to destination as it is.</t>
+  </si>
+  <si>
+    <t>Open the application and enter the character "q" in the input of source string.</t>
+  </si>
+  <si>
+    <t>It should exit the application by printing the closing statement</t>
+  </si>
+  <si>
+    <t>- Allows input of more than 79 characters</t>
+  </si>
+  <si>
+    <t>Open the application and enter a set of 79+ characters in the source string's input</t>
+  </si>
+  <si>
+    <t>It should not allow the input and prompt again for it</t>
+  </si>
+  <si>
+    <t>It accepts it and cannot copy it in destination due to size constraints and the program stops abruptly</t>
+  </si>
+  <si>
+    <t>(Reason of failure): The reason this test fails is because of the size of source and destination array. It is always advised to keep in mind the sizes of array while defining them (that the size of destination array should not be less than that of the source). We as programmers are suppose to take care of it, and this is what is missing in the program. (Recommended fix): We should define a condition where, if the size of source string is larger than 79, it should again ask the user for the input and should not move further unless &lt;79 characters are entered.</t>
   </si>
 </sst>
 </file>
@@ -930,44 +1027,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1000,6 +1097,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1299,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263E1B69-138B-4257-B5AF-406804B503D2}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G14"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1314,13 +1415,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1455,17 +1556,17 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1480,127 +1581,274 @@
       <c r="D9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="100" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="23" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="23" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="50" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24" t="s">
+      <c r="E12" s="21"/>
+      <c r="F12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="23" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="23" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="200" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="23" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="137.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="112.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="200" x14ac:dyDescent="0.35">
+      <c r="A20" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="112.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="237.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F7">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -1616,15 +1864,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010091DA70FED0CF0C47ABEB2750A1D92CC4" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6979442916101ba318def1708def148">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31d5eec3c12ee2e8127422d567928fa7">
     <xsd:element name="properties">
@@ -1738,6 +1977,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1745,14 +1993,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{745881C1-A4C9-4793-A12E-A4B37B76A22F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7425D6E-5F80-47FA-A2B5-4B34439DB9EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1768,6 +2008,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{745881C1-A4C9-4793-A12E-A4B37B76A22F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9D0DD8A-4645-45E1-B84F-0A5658F87696}">
   <ds:schemaRefs>
